--- a/vertx-pin/zero-lbs/src/main/resources/plugin/lbs/oob/cab/lbs.query.xlsx
+++ b/vertx-pin/zero-lbs/src/main/resources/plugin/lbs/oob/cab/lbs.query.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-lbs/src/main/resources/plugin/lbs/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBF45FC-1D97-A841-8315-70FC1F20DA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB29DAB-2DAC-B940-AA9A-E1886A36E7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -335,10 +337,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>resource.ambient</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lbs.location</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -410,6 +408,10 @@
   </si>
   <si>
     <t>2007a143-7e8f-408c-8671-321faee22f8b</t>
+  </si>
+  <si>
+    <t>resource.lbs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -679,28 +681,10 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -714,6 +698,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1030,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
   <dimension ref="A2:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44:F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1049,143 +1051,143 @@
     <col min="13" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="29" customFormat="1">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:9" s="23" customFormat="1">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" s="23" customFormat="1">
+      <c r="A3" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-    </row>
-    <row r="3" spans="1:9" s="29" customFormat="1">
-      <c r="A3" s="30" t="s">
+      <c r="B3" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="C3" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="D3" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="30" t="s">
+    </row>
+    <row r="4" spans="1:9" s="23" customFormat="1">
+      <c r="A4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="29" customFormat="1">
-      <c r="A4" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="31" t="s">
+      <c r="C4" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="D4" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="31" t="s">
+    </row>
+    <row r="5" spans="1:9" s="23" customFormat="1">
+      <c r="A5" s="10" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="29" customFormat="1">
-      <c r="A5" s="10" t="s">
+      <c r="B5" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="33" t="s">
+      <c r="D5" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="34" t="s">
+    </row>
+    <row r="6" spans="1:9" s="23" customFormat="1">
+      <c r="A6" s="10" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="29" customFormat="1">
-      <c r="A6" s="10" t="s">
+      <c r="B6" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="23" customFormat="1">
+      <c r="A7" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="33" t="s">
+      <c r="B7" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="29" customFormat="1">
-      <c r="A7" s="10" t="s">
+    </row>
+    <row r="8" spans="1:9" s="23" customFormat="1">
+      <c r="A8" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="33" t="s">
+      <c r="B8" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="29" customFormat="1">
-      <c r="A8" s="10" t="s">
+    </row>
+    <row r="9" spans="1:9" s="23" customFormat="1">
+      <c r="A9" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="33" t="s">
+      <c r="B9" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="29" customFormat="1">
-      <c r="A9" s="10" t="s">
+    </row>
+    <row r="10" spans="1:9" s="23" customFormat="1">
+      <c r="A10" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="33" t="s">
+      <c r="B10" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="29" customFormat="1">
-      <c r="A10" s="10" t="s">
+    </row>
+    <row r="11" spans="1:9" s="23" customFormat="1">
+      <c r="A11" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="33" t="s">
+      <c r="B11" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="28" t="s">
         <v>112</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="29" customFormat="1">
-      <c r="A11" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1195,11 +1197,11 @@
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="I13" s="3"/>
@@ -1256,7 +1258,7 @@
         <v>39</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1275,7 +1277,7 @@
         <v>42</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1294,7 +1296,7 @@
         <v>41</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1313,7 +1315,7 @@
         <v>43</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1332,7 +1334,7 @@
         <v>44</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1351,7 +1353,7 @@
         <v>79</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1370,7 +1372,7 @@
         <v>80</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1390,15 +1392,15 @@
       <c r="B28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="5" t="s">
@@ -1692,15 +1694,15 @@
       <c r="B41" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="5" t="s">
@@ -1754,10 +1756,10 @@
         <v>26</v>
       </c>
       <c r="H43" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I43" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1775,10 +1777,10 @@
         <v>74</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="G44" s="12">
         <v>2</v>
@@ -1801,10 +1803,10 @@
         <v>75</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="G45" s="12">
         <v>2</v>
@@ -1827,10 +1829,10 @@
         <v>76</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="G46" s="12">
         <v>2</v>
@@ -1853,10 +1855,10 @@
         <v>77</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="G47" s="12">
         <v>2</v>
@@ -1879,10 +1881,10 @@
         <v>78</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="G48" s="12">
         <v>2</v>
@@ -1905,10 +1907,10 @@
         <v>87</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="G49" s="12">
         <v>2</v>
@@ -1931,10 +1933,10 @@
         <v>88</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="G50" s="12">
         <v>2</v>
